--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3421147.792511639</v>
+        <v>3514655.613098313</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10747230.11886604</v>
+        <v>10745730.05669567</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881594.0812127434</v>
+        <v>881594.5289180103</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7544993.913905952</v>
+        <v>7545202.884706595</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1372,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1385,7 +1387,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,10 +1432,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>162.720253394252</v>
       </c>
       <c r="X11" t="n">
-        <v>266.074782132788</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572797</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1582,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
@@ -1616,13 +1618,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>120.8005049610268</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>142.6682771558616</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1856,10 +1858,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.6510731180171</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>55.48784570873197</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
@@ -1910,7 +1912,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
-        <v>54.54219987970125</v>
+        <v>150.2180540601765</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
@@ -2147,7 +2149,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403106</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2482,19 +2484,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124592</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2555,22 +2557,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403093</v>
@@ -2615,10 +2617,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2715,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124685</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2769,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2778,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403093</v>
@@ -2968,7 +2970,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124638</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403106</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3205,7 +3207,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>288.7835684262954</v>
+        <v>236.5013105534182</v>
       </c>
       <c r="C35" t="n">
         <v>271.3226185338224</v>
@@ -3272,7 +3274,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E35" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F35" t="n">
         <v>312.9257725045263</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.23748855099063</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T35" t="n">
         <v>109.967696902435</v>
@@ -3323,13 +3325,13 @@
         <v>157.0448987217168</v>
       </c>
       <c r="V35" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W35" t="n">
-        <v>255.2906954802278</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X35" t="n">
-        <v>223.4985695684078</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y35" t="n">
         <v>292.2876654188684</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.34202812729569</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C37" t="n">
-        <v>73.29654786144266</v>
+        <v>73.29654786144269</v>
       </c>
       <c r="D37" t="n">
-        <v>54.66519978102718</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E37" t="n">
-        <v>52.483689409384</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F37" t="n">
-        <v>51.47077478574607</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G37" t="n">
-        <v>72.07553502184305</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H37" t="n">
-        <v>50.80474167713561</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>2.40214717265291</v>
+        <v>2.402147172652953</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>2.460321182542852</v>
       </c>
       <c r="S37" t="n">
-        <v>95.81875209425672</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>125.598676038984</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y37" t="n">
         <v>124.6343801149096</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C38" t="n">
         <v>271.3226185338224</v>
@@ -3509,10 +3511,10 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F38" t="n">
-        <v>312.9257725045263</v>
+        <v>260.6435146316495</v>
       </c>
       <c r="G38" t="n">
         <v>316.9714524162683</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T38" t="n">
-        <v>72.9229275805494</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U38" t="n">
         <v>157.0448987217168</v>
       </c>
       <c r="V38" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2906954802278</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X38" t="n">
         <v>275.7808274412839</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.88170694475212</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C40" t="n">
-        <v>73.29654786144266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>54.66519978102718</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E40" t="n">
-        <v>54.94401059192754</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713564</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>2.402147172652953</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.460321182543078</v>
       </c>
       <c r="S40" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425675</v>
       </c>
       <c r="T40" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U40" t="n">
-        <v>192.2615649684277</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1873700866428</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W40" t="n">
-        <v>192.5727250994058</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X40" t="n">
         <v>131.759382151852</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.6343801149096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>241.651073118018</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>15.5071555965679</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598765</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3952,7 +3954,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3977,22 +3979,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>232.5545998123419</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
         <v>204.0200353403094</v>
@@ -4037,10 +4039,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>266.074782132788</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4140,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145655</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,7 +4200,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1358.621238582484</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C11" t="n">
-        <v>1358.621238582484</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.805172923807</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5060,31 +5062,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
         <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921007</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="X11" t="n">
-        <v>2040.461144726271</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.771445698533</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="12">
@@ -5109,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052941</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F13" t="n">
         <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998334</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
@@ -5197,7 +5199,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328085</v>
@@ -5236,13 +5238,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1522.736669656749</v>
+        <v>1654.93647038346</v>
       </c>
       <c r="C14" t="n">
-        <v>1201.223785664411</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D14" t="n">
-        <v>890.4077200057338</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>552.0691003555629</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F14" t="n">
-        <v>188.5328285140287</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>188.5328285140287</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,19 +5278,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3118.655415219833</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.524977831081</v>
+        <v>2912.574571441743</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.911723435584</v>
+        <v>2628.961317046245</v>
       </c>
       <c r="W14" t="n">
-        <v>2530.592701113543</v>
+        <v>2323.642294724204</v>
       </c>
       <c r="X14" t="n">
-        <v>2204.576575800536</v>
+        <v>1997.626169411198</v>
       </c>
       <c r="Y14" t="n">
-        <v>1861.886876772798</v>
+        <v>1654.93647038346</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5348,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
         <v>335.4089181770414</v>
@@ -5437,49 +5439,49 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337106</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2012.430767830337</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C17" t="n">
-        <v>1690.917883837998</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D17" t="n">
-        <v>1380.101818179321</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E17" t="n">
-        <v>1041.76319852915</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F17" t="n">
-        <v>678.2269266876158</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G17" t="n">
-        <v>310.6041094806856</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3269.557492610452</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3111.029377942747</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2904.948534164657</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2621.33527976916</v>
       </c>
       <c r="W17" t="n">
-        <v>3020.28679928713</v>
+        <v>2316.016257447119</v>
       </c>
       <c r="X17" t="n">
-        <v>2694.270673974123</v>
+        <v>1990.000132134112</v>
       </c>
       <c r="Y17" t="n">
-        <v>2351.580974946385</v>
+        <v>1990.000132134112</v>
       </c>
     </row>
     <row r="18">
@@ -5671,13 +5673,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1404.8025029403</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C20" t="n">
-        <v>1083.289618947962</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D20" t="n">
-        <v>772.4735532892846</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E20" t="n">
-        <v>434.1349336391136</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5780,22 +5782,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3207.671654892722</v>
+        <v>3111.029377942747</v>
       </c>
       <c r="U20" t="n">
-        <v>3001.590811114632</v>
+        <v>2904.948534164657</v>
       </c>
       <c r="V20" t="n">
-        <v>2717.977556719135</v>
+        <v>2621.33527976916</v>
       </c>
       <c r="W20" t="n">
-        <v>2412.658534397094</v>
+        <v>2316.016257447119</v>
       </c>
       <c r="X20" t="n">
-        <v>2086.642409084087</v>
+        <v>1990.000132134112</v>
       </c>
       <c r="Y20" t="n">
-        <v>1743.952710056349</v>
+        <v>1990.000132134112</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052943</v>
+        <v>1785.73444130672</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254607</v>
+        <v>1664.247891326886</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611983</v>
+        <v>1561.580884862624</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>1461.117424228304</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>1361.677109678467</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>1241.42390600126</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>1142.656352167191</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1092.780307933609</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>1184.408325632952</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>1434.900893834235</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>1797.966077535138</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>2188.628508387093</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>2576.542270345364</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>2922.377254518184</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>3201.49014020425</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>3283.224997314772</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>3138.988746089672</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>2964.671763607271</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>2723.018529680988</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921749</v>
+        <v>2515.783674423174</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>2273.816137334287</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>2093.276219384343</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>1919.933273188886</v>
       </c>
     </row>
     <row r="23">
@@ -5975,43 +5977,43 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K23" t="n">
-        <v>875.9322461484385</v>
+        <v>1002.369923216575</v>
       </c>
       <c r="L23" t="n">
-        <v>1326.966459396847</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M23" t="n">
-        <v>2305.516762226676</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N23" t="n">
-        <v>2852.295579285458</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q23" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309627</v>
@@ -6023,7 +6025,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D24" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F24" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698005</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899668</v>
+        <v>2395.987914552174</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257044</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913846</v>
+        <v>2192.857447453592</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415475</v>
+        <v>2093.417132903754</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643398</v>
+        <v>1973.163929226547</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302709</v>
+        <v>1874.396375392478</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>1824.520331158897</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960314</v>
+        <v>1916.148348858238</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>2166.640917059522</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982173</v>
+        <v>2529.706100760424</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.36853161238</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.282293570651</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.117277743471</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429537</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572252</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277853</v>
+        <v>4014.96502054006</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052753</v>
+        <v>3870.72876931496</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>3696.411786832559</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644069</v>
+        <v>3454.758552906276</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386255</v>
+        <v>3247.523697648462</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297368</v>
+        <v>3005.556160559575</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347424</v>
+        <v>2825.016242609631</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519668</v>
+        <v>2651.673296414174</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,64 +6214,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799117</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.044482857899</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737236</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2433.836156782225</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>2259.383127501098</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>2110.448717839847</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>1951.211262834391</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>1804.676704861276</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>1668.313604693894</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>1577.811710331762</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>1558.8044187333</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>1652.481688223917</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>1890.745887204265</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>2257.44404751693</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
-        <v>2704.720372739246</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>3178.2434162937</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>3589.204695711755</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>3899.704287187858</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>4057.345844834458</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>4057.201491426973</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>3927.763604920453</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>3735.120604598308</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>3507.052757732724</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>3271.900649500981</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>3017.66329277278</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>2809.811792567247</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>2602.051493802293</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698011</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899675</v>
+        <v>2395.987914552174</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257051</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913854</v>
+        <v>2192.857447453592</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415484</v>
+        <v>2093.417132903754</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643407</v>
+        <v>1973.163929226547</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302718</v>
+        <v>1874.396375392478</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>1824.520331158897</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>1916.148348858239</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>2166.640917059522</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>2529.706100760425</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.36853161238</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.282293570651</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.117277743471</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429537</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>4014.96502054006</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>3870.72876931496</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>3696.411786832559</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>3454.758552906276</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>3247.523697648462</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>3005.556160559575</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>2825.016242609631</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519675</v>
+        <v>2651.673296414174</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6457,46 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>907.4660419013965</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1771.984857554751</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>2971.628073400774</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6537,7 +6539,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899673</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257049</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913851</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.043718641548</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643403</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302714</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,31 +6642,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519673</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2200.835586644152</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2747.614403702934</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>3250.586874582271</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
@@ -6725,10 +6727,10 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
@@ -6862,7 +6864,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6886,7 +6888,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6920,25 +6922,25 @@
         <v>1196.345260781685</v>
       </c>
       <c r="E35" t="n">
-        <v>905.4562740795873</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F35" t="n">
-        <v>589.3696351861264</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G35" t="n">
         <v>269.1964509272696</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6947,16 +6949,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6968,19 +6970,19 @@
         <v>3199.135937312782</v>
       </c>
       <c r="U35" t="n">
-        <v>3040.504726482765</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V35" t="n">
         <v>2804.341105035341</v>
       </c>
       <c r="W35" t="n">
-        <v>2546.471715661374</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X35" t="n">
-        <v>2320.715584784194</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y35" t="n">
-        <v>2025.475518704529</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>427.3188191687809</v>
+        <v>522.2180850649278</v>
       </c>
       <c r="C37" t="n">
-        <v>353.2819021370207</v>
+        <v>448.1811680331675</v>
       </c>
       <c r="D37" t="n">
-        <v>298.0645286208316</v>
+        <v>392.9637945169783</v>
       </c>
       <c r="E37" t="n">
-        <v>245.0507009345851</v>
+        <v>339.9499668307319</v>
       </c>
       <c r="F37" t="n">
-        <v>193.0600193328214</v>
+        <v>287.9592852289681</v>
       </c>
       <c r="G37" t="n">
-        <v>120.256448603687</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
-        <v>68.93852771769143</v>
+        <v>68.93852771769146</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
         <v>1617.076751502319</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1924.809375176833</v>
       </c>
       <c r="S37" t="n">
-        <v>1830.507929811466</v>
+        <v>1733.12349100366</v>
       </c>
       <c r="T37" t="n">
-        <v>1703.640580277139</v>
+        <v>1511.356875573186</v>
       </c>
       <c r="U37" t="n">
-        <v>1414.537713402783</v>
+        <v>1222.254008698829</v>
       </c>
       <c r="V37" t="n">
-        <v>1159.853225196896</v>
+        <v>1062.468786389089</v>
       </c>
       <c r="W37" t="n">
-        <v>870.436055159935</v>
+        <v>867.9508822482751</v>
       </c>
       <c r="X37" t="n">
-        <v>642.4465042619177</v>
+        <v>734.8605972464044</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5531910145341</v>
+        <v>608.9672839990209</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.9645830488</v>
       </c>
       <c r="C38" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004535</v>
       </c>
       <c r="D38" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.534899293931</v>
       </c>
       <c r="E38" t="n">
-        <v>905.4562740795873</v>
+        <v>852.6459125918331</v>
       </c>
       <c r="F38" t="n">
-        <v>589.3696351861264</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G38" t="n">
-        <v>269.1964509272696</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,10 +7174,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7190,7 +7192,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052369</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T38" t="n">
-        <v>3251.946298800536</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U38" t="n">
-        <v>3093.315087970519</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V38" t="n">
-        <v>2857.151466523095</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W38" t="n">
-        <v>2599.282077149127</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X38" t="n">
-        <v>2320.715584784194</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y38" t="n">
-        <v>2025.475518704529</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="39">
@@ -7227,70 +7229,70 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.4010556650277</v>
+        <v>617.1173509610744</v>
       </c>
       <c r="C40" t="n">
-        <v>735.3641386332674</v>
+        <v>448.1811680331675</v>
       </c>
       <c r="D40" t="n">
-        <v>680.1467651170783</v>
+        <v>392.9637945169783</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>339.9499668307319</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>193.0600193328215</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>68.93852771769147</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7333,16 +7335,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1924.809375176833</v>
       </c>
       <c r="S40" t="n">
-        <v>1830.507929811466</v>
+        <v>1828.022756899806</v>
       </c>
       <c r="T40" t="n">
-        <v>1703.640580277139</v>
+        <v>1701.155407365479</v>
       </c>
       <c r="U40" t="n">
-        <v>1509.436979298929</v>
+        <v>1412.052540491122</v>
       </c>
       <c r="V40" t="n">
-        <v>1349.651756989189</v>
+        <v>1252.267318181382</v>
       </c>
       <c r="W40" t="n">
-        <v>1155.133852848375</v>
+        <v>1057.749414040568</v>
       </c>
       <c r="X40" t="n">
-        <v>1022.043567846504</v>
+        <v>924.6591290386976</v>
       </c>
       <c r="Y40" t="n">
-        <v>896.1502545991208</v>
+        <v>703.8665498951675</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2012.430767830338</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C41" t="n">
-        <v>1690.917883837999</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D41" t="n">
-        <v>1380.101818179322</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E41" t="n">
-        <v>1041.763198529151</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F41" t="n">
-        <v>678.2269266876167</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G41" t="n">
-        <v>310.6041094806865</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3309.942028077285</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3309.942028077285</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3309.942028077285</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="W41" t="n">
-        <v>3020.286799287131</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X41" t="n">
-        <v>2694.270673974124</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y41" t="n">
-        <v>2351.580974946386</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7570,46 +7572,46 @@
         <v>158.1401341315257</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328075</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M43" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N43" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T43" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V43" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y43" t="n">
         <v>893.6650816874605</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1301.367519464212</v>
+        <v>1358.621238582484</v>
       </c>
       <c r="C44" t="n">
-        <v>979.8546354718735</v>
+        <v>1358.621238582484</v>
       </c>
       <c r="D44" t="n">
-        <v>669.0385698131963</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E44" t="n">
-        <v>434.1349336391136</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F44" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T44" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V44" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W44" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X44" t="n">
-        <v>1983.207425607999</v>
+        <v>2040.461144726271</v>
       </c>
       <c r="Y44" t="n">
-        <v>1640.51772658026</v>
+        <v>1697.771445698533</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>158.1401341315257</v>
@@ -7828,28 +7830,28 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813345</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588245</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>218.2111409464629</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>227.7528737187178</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>226.7777408199137</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>227.6097508526263</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>229.1091522321465</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8379,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>133.8997196622861</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>137.8872852940284</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>126.6717389884799</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>137.5201250048898</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>131.4051496618631</v>
+        <v>132.849622231929</v>
       </c>
       <c r="K8" t="n">
-        <v>145.69122754082</v>
+        <v>147.8561174824629</v>
       </c>
       <c r="L8" t="n">
-        <v>143.4683437367664</v>
+        <v>146.1540811420379</v>
       </c>
       <c r="M8" t="n">
-        <v>127.6468450459107</v>
+        <v>130.6352453954719</v>
       </c>
       <c r="N8" t="n">
-        <v>125.0518919455497</v>
+        <v>128.0886477370433</v>
       </c>
       <c r="O8" t="n">
-        <v>131.552916366025</v>
+        <v>134.4204387476764</v>
       </c>
       <c r="P8" t="n">
-        <v>147.1268663512412</v>
+        <v>149.5742303615057</v>
       </c>
       <c r="Q8" t="n">
-        <v>159.1454893777274</v>
+        <v>160.9833578264609</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>97.27193314239383</v>
+        <v>98.13225110949729</v>
       </c>
       <c r="K9" t="n">
-        <v>87.3089595869975</v>
+        <v>88.77938002220701</v>
       </c>
       <c r="L9" t="n">
-        <v>70.60722514828196</v>
+        <v>72.58438688457353</v>
       </c>
       <c r="M9" t="n">
-        <v>62.84290932718785</v>
+        <v>65.15016381674576</v>
       </c>
       <c r="N9" t="n">
-        <v>49.95198735858253</v>
+        <v>52.32030800902902</v>
       </c>
       <c r="O9" t="n">
-        <v>68.14054709468212</v>
+        <v>70.30709780084533</v>
       </c>
       <c r="P9" t="n">
-        <v>74.2171461609162</v>
+        <v>75.95599410909642</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.0356274665314</v>
+        <v>101.1980012706528</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>98.5322663726129</v>
+        <v>99.4192181661623</v>
       </c>
       <c r="L10" t="n">
-        <v>95.87950101807517</v>
+        <v>97.01449394700373</v>
       </c>
       <c r="M10" t="n">
-        <v>97.80029556172262</v>
+        <v>98.99698646752641</v>
       </c>
       <c r="N10" t="n">
-        <v>87.5379282731808</v>
+        <v>88.70616454398026</v>
       </c>
       <c r="O10" t="n">
-        <v>101.3737168185017</v>
+        <v>102.4527720991047</v>
       </c>
       <c r="P10" t="n">
-        <v>105.9972438864277</v>
+        <v>106.9205620915436</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9638,13 +9640,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>105.7385611944691</v>
+        <v>233.4533865158186</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>277.2206841544136</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>306.6874953089246</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>167.7369666428356</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>105.7385611944686</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>78.40458911672741</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.71785991911952</v>
+        <v>14.73487899239089</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>139.5455787045685</v>
       </c>
       <c r="X11" t="n">
-        <v>56.68118192708846</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>126.8321228077011</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>14.27455636516598</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>5.981554650710763</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958328</v>
+        <v>6.724779460851273</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>102.4006336413263</v>
+        <v>6.724779460851096</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="21">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>52.28225787287724</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>52.28225787287602</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25400,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>52.28225787287687</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.23748855099063</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>37.04476932188558</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.98155465070991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>46.70546957301535</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -25685,10 +25687,10 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>102.4006336413273</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>56.68118192708846</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726320.4572074345</v>
+        <v>725599.2331485455</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693786.5313877822</v>
+        <v>694762.6272270017</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602880.5800698377</v>
+        <v>602880.5800698376</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602880.5800698376</v>
+        <v>602880.5800698377</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>602880.5800698376</v>
+        <v>602880.5800698377</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491118</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491125</v>
+        <v>798795.5764943353</v>
       </c>
       <c r="D2" t="n">
-        <v>798839.8225993391</v>
+        <v>798838.5017490629</v>
       </c>
       <c r="E2" t="n">
+        <v>745417.7346425961</v>
+      </c>
+      <c r="F2" t="n">
+        <v>745417.7346425967</v>
+      </c>
+      <c r="G2" t="n">
         <v>745417.7346425963</v>
       </c>
-      <c r="F2" t="n">
-        <v>745417.7346425963</v>
-      </c>
-      <c r="G2" t="n">
-        <v>745417.7346425961</v>
-      </c>
       <c r="H2" t="n">
-        <v>745417.734642596</v>
+        <v>745417.7346425966</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="J2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.725617676</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="M2" t="n">
-        <v>796458.0995841624</v>
+        <v>796458.0995841625</v>
       </c>
       <c r="N2" t="n">
-        <v>796458.0995841627</v>
+        <v>796458.0995841626</v>
       </c>
       <c r="O2" t="n">
-        <v>745417.7346425962</v>
+        <v>745417.7346425966</v>
       </c>
       <c r="P2" t="n">
-        <v>745417.7346425962</v>
+        <v>745417.7346425964</v>
       </c>
     </row>
     <row r="3">
@@ -26366,28 +26368,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>124598.2186766186</v>
+        <v>117826.2471223796</v>
       </c>
       <c r="E3" t="n">
-        <v>1044462.425333911</v>
+        <v>1047863.627496616</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902289</v>
+        <v>48646.25967902292</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,19 +26420,19 @@
         <v>436273.8797192482</v>
       </c>
       <c r="C4" t="n">
-        <v>436273.8797192482</v>
+        <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>396735.124001626</v>
+        <v>397875.557382715</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359852</v>
+        <v>58215.55741359857</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359854</v>
+        <v>58215.55741359855</v>
       </c>
       <c r="G4" t="n">
-        <v>58215.55741359854</v>
+        <v>58215.55741359855</v>
       </c>
       <c r="H4" t="n">
         <v>58215.55741359854</v>
@@ -26439,10 +26441,10 @@
         <v>82806.76150409842</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409844</v>
+        <v>82806.76150409841</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="L4" t="n">
         <v>82806.76150409839</v>
@@ -26451,13 +26453,13 @@
         <v>87978.72410530056</v>
       </c>
       <c r="N4" t="n">
-        <v>87978.72410530059</v>
+        <v>87978.72410530056</v>
       </c>
       <c r="O4" t="n">
-        <v>58215.55741359857</v>
+        <v>58215.55741359854</v>
       </c>
       <c r="P4" t="n">
-        <v>58215.5574135986</v>
+        <v>58215.55741359856</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>36799.24498379321</v>
+        <v>36706.9548042109</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
@@ -26488,7 +26490,7 @@
         <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26502,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82204.64608217023</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="N5" t="n">
-        <v>82204.64608217023</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="P5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>328892.9505298646</v>
+        <v>328892.9505298637</v>
       </c>
       <c r="C6" t="n">
-        <v>328892.9505298644</v>
+        <v>326501.4184322815</v>
       </c>
       <c r="D6" t="n">
-        <v>240707.2349373012</v>
+        <v>246429.7424397574</v>
       </c>
       <c r="E6" t="n">
-        <v>-435515.7414266947</v>
+        <v>-438916.9435894</v>
       </c>
       <c r="F6" t="n">
-        <v>608946.6839072161</v>
+        <v>608946.6839072166</v>
       </c>
       <c r="G6" t="n">
         <v>608946.6839072158</v>
       </c>
       <c r="H6" t="n">
-        <v>608946.6839072157</v>
+        <v>608946.6839072163</v>
       </c>
       <c r="I6" t="n">
-        <v>579684.7627597492</v>
+        <v>579684.7627597486</v>
       </c>
       <c r="J6" t="n">
-        <v>590750.9131438975</v>
+        <v>590750.9131438979</v>
       </c>
       <c r="K6" t="n">
-        <v>628331.0224387718</v>
+        <v>628331.0224387716</v>
       </c>
       <c r="L6" t="n">
-        <v>628331.0224387719</v>
+        <v>628331.022438772</v>
       </c>
       <c r="M6" t="n">
-        <v>427094.186996703</v>
+        <v>427094.1869967032</v>
       </c>
       <c r="N6" t="n">
         <v>626274.7293966919</v>
       </c>
       <c r="O6" t="n">
-        <v>608946.6839072159</v>
+        <v>608946.6839072163</v>
       </c>
       <c r="P6" t="n">
-        <v>608946.6839072159</v>
+        <v>608946.6839072162</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859261</v>
-      </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="N2" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>145.4883020088633</v>
+        <v>141.2548075326102</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26768,10 +26770,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26811,16 +26813,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26829,7 +26831,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,19 +26962,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>145.4883020088633</v>
+        <v>137.5809446393679</v>
       </c>
       <c r="E3" t="n">
-        <v>944.2883985844351</v>
+        <v>948.5218930606881</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063218</v>
+        <v>182.9350058063219</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>333.4849244355731</v>
+        <v>333.6592210197135</v>
       </c>
       <c r="I8" t="n">
-        <v>187.9273960500172</v>
+        <v>188.5835238723116</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>113.1293006504391</v>
+        <v>114.1983750118217</v>
       </c>
       <c r="S8" t="n">
-        <v>195.6921713670414</v>
+        <v>196.0799934992127</v>
       </c>
       <c r="T8" t="n">
-        <v>220.5355478875734</v>
+        <v>220.6100488808188</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2988627001552</v>
+        <v>251.300224226017</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0305800607765</v>
+        <v>137.0396860677631</v>
       </c>
       <c r="H9" t="n">
-        <v>109.213130641935</v>
+        <v>109.3010754988851</v>
       </c>
       <c r="I9" t="n">
-        <v>78.62226331585303</v>
+        <v>78.93578153885856</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>80.72828317870474</v>
+        <v>81.29365438442019</v>
       </c>
       <c r="S9" t="n">
-        <v>165.8705016792384</v>
+        <v>166.0396417651529</v>
       </c>
       <c r="T9" t="n">
-        <v>198.9033725670278</v>
+        <v>198.9400761653644</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9207941137094</v>
+        <v>225.9213931931164</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.7286234040166</v>
+        <v>167.7362575743836</v>
       </c>
       <c r="H10" t="n">
-        <v>159.8945895670352</v>
+        <v>159.9624642817528</v>
       </c>
       <c r="I10" t="n">
-        <v>147.5607158609416</v>
+        <v>147.7902961843423</v>
       </c>
       <c r="J10" t="n">
-        <v>74.81061413760835</v>
+        <v>75.35034998255622</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.19330964835603</v>
+        <v>64.83256731427025</v>
       </c>
       <c r="R10" t="n">
-        <v>165.4969136437951</v>
+        <v>165.8401737041156</v>
       </c>
       <c r="S10" t="n">
-        <v>219.4444492672839</v>
+        <v>219.5774920363163</v>
       </c>
       <c r="T10" t="n">
-        <v>226.8246139865739</v>
+        <v>226.8572327145056</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3047190317031</v>
+        <v>286.3051354409959</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859182</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859237</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859188</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859219</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29940,7 +29942,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
         <v>46.97513661859256</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.48995205464161</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H37" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>86.47183148750447</v>
       </c>
       <c r="S37" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C40" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E40" t="n">
-        <v>91.48995205464163</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>86.47183148750425</v>
       </c>
       <c r="S40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U40" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X40" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30642,7 +30644,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="L43" t="n">
         <v>46.97513661859258</v>
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5848775960155302</v>
+        <v>0.5678585227441613</v>
       </c>
       <c r="H8" t="n">
-        <v>5.98987768019405</v>
+        <v>5.815581096053643</v>
       </c>
       <c r="I8" t="n">
-        <v>22.54849352038875</v>
+        <v>21.8923656980943</v>
       </c>
       <c r="J8" t="n">
-        <v>49.64075486482316</v>
+        <v>48.1962822947573</v>
       </c>
       <c r="K8" t="n">
-        <v>74.39862350416057</v>
+        <v>72.23373356251766</v>
       </c>
       <c r="L8" t="n">
-        <v>92.29807123322087</v>
+        <v>89.6123338279493</v>
       </c>
       <c r="M8" t="n">
-        <v>102.6993881813621</v>
+        <v>99.71098783180078</v>
       </c>
       <c r="N8" t="n">
-        <v>104.3611716510412</v>
+        <v>101.3244158595476</v>
       </c>
       <c r="O8" t="n">
-        <v>98.54529505566175</v>
+        <v>95.67777267401037</v>
       </c>
       <c r="P8" t="n">
-        <v>84.10612940402834</v>
+        <v>81.65876539376387</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.16020049672213</v>
+        <v>61.32233204798858</v>
       </c>
       <c r="R8" t="n">
-        <v>36.73981729071058</v>
+        <v>35.67074292932795</v>
       </c>
       <c r="S8" t="n">
-        <v>13.32789821920391</v>
+        <v>12.94007608703259</v>
       </c>
       <c r="T8" t="n">
-        <v>2.560301676557985</v>
+        <v>2.485800683312567</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04679020768124241</v>
+        <v>0.04542868181953289</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3129371024341587</v>
+        <v>0.3038310954475013</v>
       </c>
       <c r="H9" t="n">
-        <v>3.022313594561481</v>
+        <v>2.934368737611394</v>
       </c>
       <c r="I9" t="n">
-        <v>10.77436953556204</v>
+        <v>10.46085131255651</v>
       </c>
       <c r="J9" t="n">
-        <v>29.56569352427287</v>
+        <v>28.70537555716941</v>
       </c>
       <c r="K9" t="n">
-        <v>50.5324793873615</v>
+        <v>49.06205895215199</v>
       </c>
       <c r="L9" t="n">
-        <v>67.94715463159223</v>
+        <v>65.96999289530065</v>
       </c>
       <c r="M9" t="n">
-        <v>79.29112459483046</v>
+        <v>76.98387010527256</v>
       </c>
       <c r="N9" t="n">
-        <v>81.38972472475078</v>
+        <v>79.02140407430429</v>
       </c>
       <c r="O9" t="n">
-        <v>74.45569734976232</v>
+        <v>72.28914664359911</v>
       </c>
       <c r="P9" t="n">
-        <v>59.75726125341405</v>
+        <v>58.01841330523381</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.94614661949016</v>
+        <v>38.78377281536876</v>
       </c>
       <c r="R9" t="n">
-        <v>19.42955097393839</v>
+        <v>18.86417976822293</v>
       </c>
       <c r="S9" t="n">
-        <v>5.812669424599392</v>
+        <v>5.643529338684942</v>
       </c>
       <c r="T9" t="n">
-        <v>1.261356127793823</v>
+        <v>1.224652529457252</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02058796726540519</v>
+        <v>0.01998888785838825</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2623559544422124</v>
+        <v>0.2547217840751987</v>
       </c>
       <c r="H10" t="n">
-        <v>2.332582940404399</v>
+        <v>2.264708225686769</v>
       </c>
       <c r="I10" t="n">
-        <v>7.889759066316717</v>
+        <v>7.660178742915979</v>
       </c>
       <c r="J10" t="n">
-        <v>18.54856597906442</v>
+        <v>18.00883013411655</v>
       </c>
       <c r="K10" t="n">
-        <v>30.48099179792249</v>
+        <v>29.59404000437308</v>
       </c>
       <c r="L10" t="n">
-        <v>39.00517526316311</v>
+        <v>37.87018233423455</v>
       </c>
       <c r="M10" t="n">
-        <v>41.12548838588243</v>
+        <v>39.92879748007864</v>
       </c>
       <c r="N10" t="n">
-        <v>40.1476161920524</v>
+        <v>38.97937992125294</v>
       </c>
       <c r="O10" t="n">
-        <v>37.08282163334109</v>
+        <v>36.0037663527381</v>
       </c>
       <c r="P10" t="n">
-        <v>31.73076016271993</v>
+        <v>30.80744195760402</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.96873360333835</v>
+        <v>21.32947593742414</v>
       </c>
       <c r="R10" t="n">
-        <v>11.79647773337438</v>
+        <v>11.45321767305393</v>
       </c>
       <c r="S10" t="n">
-        <v>4.572148769688373</v>
+        <v>4.439106000655961</v>
       </c>
       <c r="T10" t="n">
-        <v>1.120975441707635</v>
+        <v>1.088356713775849</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01431032478775706</v>
+        <v>0.01389391549501085</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32330,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33035,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34454,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35577,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,19 +35810,19 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887899</v>
       </c>
       <c r="M16" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35890,7 +35892,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35969,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -35978,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316586</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36051,7 +36053,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36142,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36285,7 +36287,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120757</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861327</v>
@@ -36294,7 +36296,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>442.9298477498696</v>
+        <v>570.6446730712192</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165844</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M25" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>614.4119707098149</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>816.1417999846403</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36683,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36765,13 +36767,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>643.8787818643251</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>675.7899675310547</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37084,10 +37086,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>504.5005474138404</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>329.1988939204469</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37236,7 +37238,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162911</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37949,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38102,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629122</v>
@@ -38187,13 +38189,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3514655.613098313</v>
+        <v>3508555.741611407</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10745730.05669567</v>
+        <v>10363434.53730222</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881594.5289180103</v>
+        <v>608890.6911856116</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7545202.884706595</v>
+        <v>7664417.998173287</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
@@ -1384,10 +1384,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1432,13 +1432,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>162.720253394252</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>300.98312554124</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>126.1834840891873</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
-        <v>142.6682771558616</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>238.227637932515</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>297.55253865064</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>286.9626885003155</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>314.2100169518943</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>339.155692621344</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>343.201372533086</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>226.887411266953</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>55.48784570873197</v>
+        <v>41.46740866780834</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>136.1976170192527</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>183.2748188385345</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>260.0319053497674</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>281.5206155970455</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>302.0107475581016</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>318.5175855356861</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633447</v>
+        <v>112.1116270615698</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>99.52646797826034</v>
       </c>
       <c r="D19" t="n">
-        <v>101.6403363996198</v>
+        <v>80.89511989784486</v>
       </c>
       <c r="E19" t="n">
-        <v>99.4588260279766</v>
+        <v>78.71360952620168</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433867</v>
+        <v>77.70069490256375</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>98.30545513866073</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572821</v>
+        <v>77.03466179395329</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>28.6320672894706</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>21.21179954967984</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>122.0486722110744</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575766</v>
+        <v>151.8285961558017</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870203</v>
+        <v>218.4914850852454</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052354</v>
+        <v>184.4172902034605</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179984</v>
+        <v>218.8026452162235</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704446</v>
+        <v>157.9893022686697</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>150.8643002317273</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>315.0134885431131</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>297.55253865064</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>286.9626885003155</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>314.2100169518943</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>339.155692621344</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>343.201372533086</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>226.887411266953</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>150.2180540601765</v>
+        <v>100.8791750764631</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>183.2748188385345</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>260.0319053497674</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>281.5206155970455</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>302.0107475581016</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>318.5175855356861</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633447</v>
+        <v>112.1116270615698</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>99.52646797826034</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6403363996198</v>
+        <v>80.89511989784486</v>
       </c>
       <c r="E22" t="n">
-        <v>99.4588260279766</v>
+        <v>78.71360952620168</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433867</v>
+        <v>77.70069490256375</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>98.30545513866073</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572821</v>
+        <v>77.03466179395329</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124552</v>
+        <v>28.6320672894706</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>21.21179954967984</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>122.0486722110744</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575766</v>
+        <v>151.8285961558017</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870203</v>
+        <v>218.4914850852454</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052354</v>
+        <v>184.4172902034605</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179984</v>
+        <v>218.8026452162235</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704446</v>
+        <v>157.9893022686697</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335022</v>
+        <v>150.8643002317273</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>315.0134885431131</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>297.55253865064</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>286.9626885003155</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>314.2100169518943</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>339.155692621344</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>343.201372533086</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>226.887411266953</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958323</v>
+        <v>41.46740866780834</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>136.1976170192525</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403106</v>
+        <v>183.274818838535</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515423</v>
+        <v>260.0319053497674</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>281.5206155970455</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>302.0107475581016</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.262802037461</v>
+        <v>318.5175855356861</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633447</v>
+        <v>112.1116270615698</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>99.52646797826034</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996198</v>
+        <v>80.89511989784486</v>
       </c>
       <c r="E25" t="n">
-        <v>99.4588260279766</v>
+        <v>78.71360952620168</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433867</v>
+        <v>77.70069490256375</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>98.30545513866073</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572821</v>
+        <v>77.03466179395329</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124551</v>
+        <v>28.6320672894706</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145476</v>
+        <v>21.21179954967984</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>122.0486722110744</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575766</v>
+        <v>151.8285961558017</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870203</v>
+        <v>218.4914850852454</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052354</v>
+        <v>184.4172902034605</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179984</v>
+        <v>218.8026452162235</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704446</v>
+        <v>157.9893022686697</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>150.8643002317273</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2733,7 +2733,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124525</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403088</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2958,19 +2958,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124638</v>
+        <v>49.37728379124584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403093</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3189,25 +3189,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.5013105534182</v>
+        <v>309.5287849280704</v>
       </c>
       <c r="C35" t="n">
-        <v>271.3226185338224</v>
+        <v>292.0678350355973</v>
       </c>
       <c r="D35" t="n">
-        <v>260.7327683834978</v>
+        <v>281.4779848852728</v>
       </c>
       <c r="E35" t="n">
-        <v>287.9800968350767</v>
+        <v>308.7253133368516</v>
       </c>
       <c r="F35" t="n">
-        <v>312.9257725045263</v>
+        <v>333.6709890063013</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9714524162683</v>
+        <v>337.7166689180433</v>
       </c>
       <c r="H35" t="n">
-        <v>200.6574911501353</v>
+        <v>221.4027076519103</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.23748855099069</v>
+        <v>35.98270505276565</v>
       </c>
       <c r="T35" t="n">
-        <v>109.967696902435</v>
+        <v>130.71291340421</v>
       </c>
       <c r="U35" t="n">
-        <v>157.0448987217168</v>
+        <v>177.7901152234918</v>
       </c>
       <c r="V35" t="n">
-        <v>233.8019852329498</v>
+        <v>254.5472017347257</v>
       </c>
       <c r="W35" t="n">
-        <v>255.2906954802279</v>
+        <v>276.0359119820029</v>
       </c>
       <c r="X35" t="n">
-        <v>275.7808274412839</v>
+        <v>296.5260439430589</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.2876654188684</v>
+        <v>313.0328819206434</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.88170694475215</v>
+        <v>157.982994116549</v>
       </c>
       <c r="C37" t="n">
-        <v>73.29654786144269</v>
+        <v>94.04176436321765</v>
       </c>
       <c r="D37" t="n">
-        <v>54.66519978102721</v>
+        <v>75.41041628280217</v>
       </c>
       <c r="E37" t="n">
-        <v>52.48368940938403</v>
+        <v>73.22890591115899</v>
       </c>
       <c r="F37" t="n">
-        <v>51.4707747857461</v>
+        <v>72.21599128752106</v>
       </c>
       <c r="G37" t="n">
-        <v>72.07553502184308</v>
+        <v>92.82075152361804</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>71.5499581789106</v>
       </c>
       <c r="I37" t="n">
-        <v>2.402147172652953</v>
+        <v>23.14736367442791</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.460321182542852</v>
+        <v>15.72709593463715</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>116.5639685960317</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>146.343892540759</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>213.0067814702027</v>
       </c>
       <c r="V37" t="n">
-        <v>158.1873700866429</v>
+        <v>178.9325865884178</v>
       </c>
       <c r="W37" t="n">
-        <v>192.5727250994059</v>
+        <v>213.3179416011808</v>
       </c>
       <c r="X37" t="n">
-        <v>131.759382151852</v>
+        <v>152.504598653627</v>
       </c>
       <c r="Y37" t="n">
-        <v>124.6343801149096</v>
+        <v>145.3795966166846</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7835684262955</v>
+        <v>309.5287849280704</v>
       </c>
       <c r="C38" t="n">
-        <v>271.3226185338224</v>
+        <v>292.0678350355973</v>
       </c>
       <c r="D38" t="n">
-        <v>260.7327683834978</v>
+        <v>281.4779848852728</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9800968350767</v>
+        <v>308.7253133368516</v>
       </c>
       <c r="F38" t="n">
-        <v>260.6435146316495</v>
+        <v>333.6709890063013</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9714524162683</v>
+        <v>337.7166689180433</v>
       </c>
       <c r="H38" t="n">
-        <v>200.6574911501353</v>
+        <v>221.4027076519103</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.23748855099069</v>
+        <v>35.98270505276565</v>
       </c>
       <c r="T38" t="n">
-        <v>109.967696902435</v>
+        <v>130.7129134042098</v>
       </c>
       <c r="U38" t="n">
-        <v>157.0448987217168</v>
+        <v>177.7901152234926</v>
       </c>
       <c r="V38" t="n">
-        <v>233.8019852329498</v>
+        <v>254.5472017347247</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2906954802279</v>
+        <v>276.0359119820029</v>
       </c>
       <c r="X38" t="n">
-        <v>275.7808274412839</v>
+        <v>296.5260439430589</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2876654188684</v>
+        <v>313.0328819206434</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.88170694475215</v>
+        <v>106.6269234465271</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>94.04176436321765</v>
       </c>
       <c r="D40" t="n">
-        <v>54.66519978102721</v>
+        <v>75.41041628280217</v>
       </c>
       <c r="E40" t="n">
-        <v>52.48368940938403</v>
+        <v>73.22890591115899</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>72.21599128752106</v>
       </c>
       <c r="G40" t="n">
-        <v>72.07553502184308</v>
+        <v>92.82075152361804</v>
       </c>
       <c r="H40" t="n">
-        <v>50.80474167713564</v>
+        <v>71.5499581789106</v>
       </c>
       <c r="I40" t="n">
-        <v>2.402147172652953</v>
+        <v>23.14736367442791</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.460321182543078</v>
+        <v>15.72709593463715</v>
       </c>
       <c r="S40" t="n">
-        <v>95.81875209425675</v>
+        <v>116.5639685960317</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5986760389841</v>
+        <v>146.343892540759</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>213.0067814702027</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1873700866429</v>
+        <v>230.2886572584395</v>
       </c>
       <c r="W40" t="n">
-        <v>192.5727250994059</v>
+        <v>213.3179416011808</v>
       </c>
       <c r="X40" t="n">
-        <v>131.759382151852</v>
+        <v>152.504598653627</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>145.3795966166846</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>15.5071555965679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>301.0400788507926</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3954,7 +3954,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3979,13 +3979,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481102</v>
       </c>
       <c r="X44" t="n">
-        <v>266.074782132788</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4137,25 +4137,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128497</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.338774781834</v>
+        <v>1340.033859359386</v>
       </c>
       <c r="C11" t="n">
-        <v>1446.825890789496</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2450.178680925621</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.178680925621</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y11" t="n">
-        <v>2107.488981897883</v>
+        <v>1679.184066475435</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5196,13 +5196,13 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337114</v>
@@ -5238,13 +5238,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1654.93647038346</v>
+        <v>1584.98077385971</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.423586391121</v>
+        <v>1263.467889867371</v>
       </c>
       <c r="D14" t="n">
-        <v>1022.607520732444</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E14" t="n">
-        <v>684.2689010822733</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5308,22 +5308,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3118.655415219833</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2912.574571441743</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2628.961317046245</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W14" t="n">
-        <v>2323.642294724204</v>
+        <v>2592.836805316504</v>
       </c>
       <c r="X14" t="n">
-        <v>1997.626169411198</v>
+        <v>2266.820680003497</v>
       </c>
       <c r="Y14" t="n">
-        <v>1654.93647038346</v>
+        <v>1924.130980975758</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5360,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5442,46 +5442,46 @@
         <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337106</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.849925018064</v>
+        <v>1899.808995314582</v>
       </c>
       <c r="C17" t="n">
-        <v>1329.337041025725</v>
+        <v>1599.25087546545</v>
       </c>
       <c r="D17" t="n">
-        <v>1018.520975367048</v>
+        <v>1309.38957394998</v>
       </c>
       <c r="E17" t="n">
-        <v>680.1823557168772</v>
+        <v>992.0057184430161</v>
       </c>
       <c r="F17" t="n">
-        <v>316.6460838753429</v>
+        <v>649.4242107446889</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>302.7561576809657</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101308</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101308</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>398.4413040793857</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>732.2606777692322</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1183.294891017641</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1716.826795689566</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2263.605612748348</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2766.578083627685</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3161.352449984863</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3619.830652493851</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3678.847719050654</v>
       </c>
       <c r="S17" t="n">
-        <v>3269.557492610452</v>
+        <v>3636.961447669029</v>
       </c>
       <c r="T17" t="n">
-        <v>3111.029377942747</v>
+        <v>3499.388097144531</v>
       </c>
       <c r="U17" t="n">
-        <v>2904.948534164657</v>
+        <v>3314.262017509648</v>
       </c>
       <c r="V17" t="n">
-        <v>2621.33527976916</v>
+        <v>3051.603527257358</v>
       </c>
       <c r="W17" t="n">
-        <v>2316.016257447119</v>
+        <v>2767.239269078524</v>
       </c>
       <c r="X17" t="n">
-        <v>1990.000132134112</v>
+        <v>2462.177907908724</v>
       </c>
       <c r="Y17" t="n">
-        <v>1990.000132134112</v>
+        <v>2140.442973024193</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>948.6086924299383</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>774.1556631488113</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>625.22125348756</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>465.9837984821046</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>319.4492405089895</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>183.0861403416076</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>92.58424597947513</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101308</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>167.2542238716304</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>405.5184228519776</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>772.216583164643</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1219.492908386959</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1693.015951941413</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2103.977231359468</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2414.476822835571</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2572.118380482171</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2571.974027074686</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2442.536140568166</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2249.893140246022</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2021.825293380437</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1786.673185148695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1532.435828420493</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1324.58432821496</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1116.824029450006</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052943</v>
+        <v>619.8477387516749</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254607</v>
+        <v>519.3159529150483</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611983</v>
+        <v>437.603710593993</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>358.0950141028802</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>279.6094636962501</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>180.3110241622493</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>102.4982344713874</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101308</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315254</v>
+        <v>155.4664425558892</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328084</v>
+        <v>359.4536255047656</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337113</v>
+        <v>676.0134239532617</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>1020.170469552811</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1361.578846258675</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1660.908445179089</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>1893.515945612748</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>1971.126241765263</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>1949.700181614071</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>1826.418694532178</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>1673.056476192985</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>1452.358006409908</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921749</v>
+        <v>1266.077915295302</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832862</v>
+        <v>1045.065142349621</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882918</v>
+        <v>885.4799885428841</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>733.0918064906343</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1650.849925018064</v>
+        <v>1899.808995314582</v>
       </c>
       <c r="C20" t="n">
-        <v>1329.337041025725</v>
+        <v>1599.25087546545</v>
       </c>
       <c r="D20" t="n">
-        <v>1018.520975367048</v>
+        <v>1309.38957394998</v>
       </c>
       <c r="E20" t="n">
-        <v>680.1823557168772</v>
+        <v>992.0057184430161</v>
       </c>
       <c r="F20" t="n">
-        <v>316.6460838753429</v>
+        <v>649.4242107446889</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>302.7561576809657</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101308</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101308</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>429.8617343603916</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>763.681108050238</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1214.715321298647</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1748.247225970571</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2295.026043029354</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2797.998513908691</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3192.772880265869</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3554.771396819599</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3678.847719050654</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3678.847719050654</v>
       </c>
       <c r="T20" t="n">
-        <v>3111.029377942747</v>
+        <v>3576.949562407762</v>
       </c>
       <c r="U20" t="n">
-        <v>2904.948534164657</v>
+        <v>3391.823482772878</v>
       </c>
       <c r="V20" t="n">
-        <v>2621.33527976916</v>
+        <v>3129.164992520588</v>
       </c>
       <c r="W20" t="n">
-        <v>2316.016257447119</v>
+        <v>2844.800734341754</v>
       </c>
       <c r="X20" t="n">
-        <v>1990.000132134112</v>
+        <v>2539.739373171954</v>
       </c>
       <c r="Y20" t="n">
-        <v>1990.000132134112</v>
+        <v>2218.004438287423</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>948.6086924299383</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>774.1556631488113</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>625.22125348756</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>465.9837984821046</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>319.4492405089895</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>183.0861403416076</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>92.58424597947513</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>73.57695438101308</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>167.2542238716304</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>405.5184228519776</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>772.216583164643</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1219.492908386959</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1693.015951941413</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2103.977231359468</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2414.476822835571</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2572.118380482171</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2571.974027074686</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2442.536140568166</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2249.893140246022</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2021.825293380437</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1786.673185148695</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1532.435828420493</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1324.58432821496</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1116.824029450006</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1785.73444130672</v>
+        <v>619.8477387516749</v>
       </c>
       <c r="C22" t="n">
-        <v>1664.247891326886</v>
+        <v>519.3159529150483</v>
       </c>
       <c r="D22" t="n">
-        <v>1561.580884862624</v>
+        <v>437.603710593993</v>
       </c>
       <c r="E22" t="n">
-        <v>1461.117424228304</v>
+        <v>358.0950141028802</v>
       </c>
       <c r="F22" t="n">
-        <v>1361.677109678467</v>
+        <v>279.6094636962501</v>
       </c>
       <c r="G22" t="n">
-        <v>1241.42390600126</v>
+        <v>180.3110241622493</v>
       </c>
       <c r="H22" t="n">
-        <v>1142.656352167191</v>
+        <v>102.4982344713874</v>
       </c>
       <c r="I22" t="n">
-        <v>1092.780307933609</v>
+        <v>73.57695438101308</v>
       </c>
       <c r="J22" t="n">
-        <v>1184.408325632952</v>
+        <v>155.4664425558892</v>
       </c>
       <c r="K22" t="n">
-        <v>1434.900893834235</v>
+        <v>359.4536255047656</v>
       </c>
       <c r="L22" t="n">
-        <v>1797.966077535138</v>
+        <v>676.0134239532617</v>
       </c>
       <c r="M22" t="n">
-        <v>2188.628508387093</v>
+        <v>1020.170469552811</v>
       </c>
       <c r="N22" t="n">
-        <v>2576.542270345364</v>
+        <v>1361.578846258675</v>
       </c>
       <c r="O22" t="n">
-        <v>2922.377254518184</v>
+        <v>1660.908445179089</v>
       </c>
       <c r="P22" t="n">
-        <v>3201.49014020425</v>
+        <v>1893.515945612748</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1971.126241765263</v>
       </c>
       <c r="R22" t="n">
-        <v>3283.224997314772</v>
+        <v>1949.700181614071</v>
       </c>
       <c r="S22" t="n">
-        <v>3138.988746089672</v>
+        <v>1826.418694532178</v>
       </c>
       <c r="T22" t="n">
-        <v>2964.671763607271</v>
+        <v>1673.056476192985</v>
       </c>
       <c r="U22" t="n">
-        <v>2723.018529680988</v>
+        <v>1452.358006409908</v>
       </c>
       <c r="V22" t="n">
-        <v>2515.783674423174</v>
+        <v>1266.077915295302</v>
       </c>
       <c r="W22" t="n">
-        <v>2273.816137334287</v>
+        <v>1045.065142349621</v>
       </c>
       <c r="X22" t="n">
-        <v>2093.276219384343</v>
+        <v>885.4799885428841</v>
       </c>
       <c r="Y22" t="n">
-        <v>1919.933273188886</v>
+        <v>733.0918064906343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>1901.39188236077</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1600.833762511638</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038484</v>
+        <v>1310.972460996168</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>993.5886054892044</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>651.0070977908772</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>304.339044727154</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>75.15984142720146</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>75.15984142720146</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760677</v>
+        <v>431.4446214065799</v>
       </c>
       <c r="K23" t="n">
-        <v>1002.369923216575</v>
+        <v>765.2639950964265</v>
       </c>
       <c r="L23" t="n">
-        <v>1453.404136464984</v>
+        <v>1216.298208344835</v>
       </c>
       <c r="M23" t="n">
-        <v>1986.936041136908</v>
+        <v>1749.83011301676</v>
       </c>
       <c r="N23" t="n">
-        <v>2533.714858195691</v>
+        <v>2296.608930075542</v>
       </c>
       <c r="O23" t="n">
-        <v>3036.687329075028</v>
+        <v>2799.581400954879</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521974</v>
+        <v>3194.355767312057</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277656</v>
+        <v>3633.915749129018</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>3757.992071360073</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3716.105799978448</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3578.53244945395</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3393.406369819067</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3130.747879566776</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>2846.383621387942</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2541.322260218143</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2219.587325333611</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456142</v>
+        <v>950.1915794761268</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644872</v>
+        <v>775.7385501949998</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>626.8041405337485</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977805</v>
+        <v>467.566685528293</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>321.0321275551779</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572842</v>
+        <v>184.669027387796</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951516</v>
+        <v>94.1671330256635</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>75.15984142720146</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873063</v>
+        <v>168.8371109178188</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676537</v>
+        <v>407.1013098981659</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803188</v>
+        <v>773.7994702108313</v>
       </c>
       <c r="M24" t="n">
-        <v>1227.062870902635</v>
+        <v>1221.075795433147</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.585914457089</v>
+        <v>1694.598838987602</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.547193875144</v>
+        <v>2105.560118405657</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2416.05970988176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997847</v>
+        <v>2573.701267528359</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2573.556914120875</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2444.119027614355</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761698</v>
+        <v>2251.47602729221</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.395255896113</v>
+        <v>2023.408180426626</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.243147664371</v>
+        <v>1788.256072194883</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936169</v>
+        <v>1534.018715466681</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1326.167215261149</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965682</v>
+        <v>1118.406916496195</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2517.474464532007</v>
+        <v>621.4306257978633</v>
       </c>
       <c r="C25" t="n">
-        <v>2395.987914552174</v>
+        <v>520.8988399612367</v>
       </c>
       <c r="D25" t="n">
-        <v>2293.320908087911</v>
+        <v>439.1865976401813</v>
       </c>
       <c r="E25" t="n">
-        <v>2192.857447453592</v>
+        <v>359.6779011490685</v>
       </c>
       <c r="F25" t="n">
-        <v>2093.417132903754</v>
+        <v>281.1923507424385</v>
       </c>
       <c r="G25" t="n">
-        <v>1973.163929226547</v>
+        <v>181.8939112084377</v>
       </c>
       <c r="H25" t="n">
-        <v>1874.396375392478</v>
+        <v>104.0811215175758</v>
       </c>
       <c r="I25" t="n">
-        <v>1824.520331158897</v>
+        <v>75.15984142720146</v>
       </c>
       <c r="J25" t="n">
-        <v>1916.148348858238</v>
+        <v>157.0493296020775</v>
       </c>
       <c r="K25" t="n">
-        <v>2166.640917059522</v>
+        <v>361.0365125509539</v>
       </c>
       <c r="L25" t="n">
-        <v>2529.706100760424</v>
+        <v>677.59631099945</v>
       </c>
       <c r="M25" t="n">
-        <v>2920.36853161238</v>
+        <v>1021.753356598999</v>
       </c>
       <c r="N25" t="n">
-        <v>3308.282293570651</v>
+        <v>1363.161733304864</v>
       </c>
       <c r="O25" t="n">
-        <v>3654.117277743471</v>
+        <v>1662.491332225277</v>
       </c>
       <c r="P25" t="n">
-        <v>3933.230163429537</v>
+        <v>1895.098832658937</v>
       </c>
       <c r="Q25" t="n">
-        <v>4057.345844834459</v>
+        <v>1972.709128811451</v>
       </c>
       <c r="R25" t="n">
-        <v>4014.96502054006</v>
+        <v>1951.28306866026</v>
       </c>
       <c r="S25" t="n">
-        <v>3870.72876931496</v>
+        <v>1828.001581578366</v>
       </c>
       <c r="T25" t="n">
-        <v>3696.411786832559</v>
+        <v>1674.639363239173</v>
       </c>
       <c r="U25" t="n">
-        <v>3454.758552906276</v>
+        <v>1453.940893456097</v>
       </c>
       <c r="V25" t="n">
-        <v>3247.523697648462</v>
+        <v>1267.66080234149</v>
       </c>
       <c r="W25" t="n">
-        <v>3005.556160559575</v>
+        <v>1046.64802939581</v>
       </c>
       <c r="X25" t="n">
-        <v>2825.016242609631</v>
+        <v>887.0628755890725</v>
       </c>
       <c r="Y25" t="n">
-        <v>2651.673296414174</v>
+        <v>734.6746935368227</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6214,43 +6214,43 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>1045.699547878784</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1496.733761127193</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799118</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.0444828579</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6259,7 +6259,7 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6268,10 +6268,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2517.474464532007</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>2395.987914552174</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>2293.320908087911</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>2192.857447453592</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F28" t="n">
-        <v>2093.417132903754</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>1973.163929226547</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>1874.396375392478</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>1824.520331158897</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>1916.148348858239</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>2166.640917059522</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>2529.706100760425</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>2920.36853161238</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>3308.282293570651</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>3654.117277743471</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>3933.230163429537</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>4057.345844834459</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>4014.96502054006</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>3870.72876931496</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>3696.411786832559</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>3454.758552906276</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>3247.523697648462</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>3005.556160559575</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>2825.016242609631</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>2651.673296414174</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6466,22 +6466,22 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>907.4660419013965</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1771.984857554751</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226676</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3728.510094301078</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277656</v>
@@ -6499,16 +6499,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6548,7 +6548,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899673</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913851</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641548</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643403</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302714</v>
+        <v>131.0229611302708</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668916</v>
@@ -6627,7 +6627,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6642,13 +6642,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
@@ -6657,7 +6657,7 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297368</v>
@@ -6666,7 +6666,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519673</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6682,58 +6682,58 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659143</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849467</v>
+        <v>2805.568476424368</v>
       </c>
       <c r="P32" t="n">
-        <v>3672.421873296413</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6855,28 +6855,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973134</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982163</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6888,7 +6888,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6903,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1733.774944536554</v>
+        <v>1866.568367344626</v>
       </c>
       <c r="C35" t="n">
-        <v>1459.711693492289</v>
+        <v>1571.550352157154</v>
       </c>
       <c r="D35" t="n">
-        <v>1196.345260781685</v>
+        <v>1287.229155303343</v>
       </c>
       <c r="E35" t="n">
-        <v>905.4562740795875</v>
+        <v>975.3854044580382</v>
       </c>
       <c r="F35" t="n">
-        <v>589.3696351861265</v>
+        <v>638.3440014213703</v>
       </c>
       <c r="G35" t="n">
-        <v>269.1964509272696</v>
+        <v>297.2160530193063</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>73.5769543810131</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>73.5769543810131</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>262.4560853400386</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>596.275459029885</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1047.309672278294</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1580.841576950218</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2127.620394009001</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2630.592864888338</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3343.947952335284</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3619.830652493852</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3678.847719050655</v>
       </c>
       <c r="S35" t="n">
-        <v>3310.214419032413</v>
+        <v>3642.501552330689</v>
       </c>
       <c r="T35" t="n">
-        <v>3199.135937312782</v>
+        <v>3510.468306467851</v>
       </c>
       <c r="U35" t="n">
-        <v>3040.504726482764</v>
+        <v>3330.882331494627</v>
       </c>
       <c r="V35" t="n">
-        <v>2804.341105035341</v>
+        <v>3073.763945903995</v>
       </c>
       <c r="W35" t="n">
-        <v>2546.471715661373</v>
+        <v>2794.93979238682</v>
       </c>
       <c r="X35" t="n">
-        <v>2267.90522329644</v>
+        <v>2495.41853587868</v>
       </c>
       <c r="Y35" t="n">
-        <v>1972.665157216775</v>
+        <v>2179.223705655808</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>948.6086924299383</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>774.1556631488113</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>625.22125348756</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>465.9837984821046</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>319.4492405089895</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>183.0861403416076</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>92.58424597947513</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>73.5769543810131</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>167.2542238716304</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>405.5184228519776</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>772.2165831646429</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1219.492908386959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1693.015951941413</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2103.977231359468</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2414.476822835571</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2572.118380482171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2571.974027074686</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2442.536140568166</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2249.893140246022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2021.825293380437</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1786.673185148695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1532.435828420493</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1324.58432821496</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1116.824029450006</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>522.2180850649278</v>
+        <v>581.0670061200601</v>
       </c>
       <c r="C37" t="n">
-        <v>448.1811680331675</v>
+        <v>486.0753249450927</v>
       </c>
       <c r="D37" t="n">
-        <v>392.9637945169783</v>
+        <v>409.9031872856966</v>
       </c>
       <c r="E37" t="n">
-        <v>339.9499668307319</v>
+        <v>335.9345954562431</v>
       </c>
       <c r="F37" t="n">
-        <v>287.9592852289681</v>
+        <v>262.9891497112723</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>169.2308148389308</v>
       </c>
       <c r="H37" t="n">
-        <v>68.93852771769146</v>
+        <v>96.95812980972816</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>73.5769543810131</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>118.6995868279487</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>322.686769776825</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>639.2465682253212</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>983.4036138248703</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>1324.811990530735</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>1624.141589451148</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>1856.749089884808</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1934.359386037323</v>
       </c>
       <c r="R37" t="n">
-        <v>1924.809375176833</v>
+        <v>1918.47343054779</v>
       </c>
       <c r="S37" t="n">
-        <v>1733.12349100366</v>
+        <v>1800.732048127556</v>
       </c>
       <c r="T37" t="n">
-        <v>1511.356875573186</v>
+        <v>1652.909934450022</v>
       </c>
       <c r="U37" t="n">
-        <v>1222.254008698829</v>
+        <v>1437.751569328605</v>
       </c>
       <c r="V37" t="n">
-        <v>1062.468786389089</v>
+        <v>1257.011582875657</v>
       </c>
       <c r="W37" t="n">
-        <v>867.9508822482751</v>
+        <v>1041.538914591637</v>
       </c>
       <c r="X37" t="n">
-        <v>734.8605972464044</v>
+        <v>887.4938654465587</v>
       </c>
       <c r="Y37" t="n">
-        <v>608.9672839990209</v>
+        <v>740.6457880559682</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1680.9645830488</v>
+        <v>1866.568367344626</v>
       </c>
       <c r="C38" t="n">
-        <v>1406.901332004535</v>
+        <v>1571.550352157154</v>
       </c>
       <c r="D38" t="n">
-        <v>1143.534899293931</v>
+        <v>1287.229155303343</v>
       </c>
       <c r="E38" t="n">
-        <v>852.6459125918331</v>
+        <v>975.3854044580382</v>
       </c>
       <c r="F38" t="n">
-        <v>589.3696351861265</v>
+        <v>638.3440014213703</v>
       </c>
       <c r="G38" t="n">
-        <v>269.1964509272697</v>
+        <v>297.2160530193063</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>73.5769543810131</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>73.5769543810131</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>429.8617343603916</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>763.681108050238</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1214.715321298647</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1748.247225970571</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2295.026043029354</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2797.998513908691</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3306.485035063917</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3554.771396819599</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3678.847719050655</v>
       </c>
       <c r="S38" t="n">
-        <v>3310.214419032413</v>
+        <v>3642.501552330689</v>
       </c>
       <c r="T38" t="n">
-        <v>3199.135937312782</v>
+        <v>3510.468306467851</v>
       </c>
       <c r="U38" t="n">
-        <v>3040.504726482765</v>
+        <v>3330.882331494626</v>
       </c>
       <c r="V38" t="n">
-        <v>2804.341105035341</v>
+        <v>3073.763945903995</v>
       </c>
       <c r="W38" t="n">
-        <v>2546.471715661373</v>
+        <v>2794.93979238682</v>
       </c>
       <c r="X38" t="n">
-        <v>2267.90522329644</v>
+        <v>2495.41853587868</v>
       </c>
       <c r="Y38" t="n">
-        <v>1972.665157216775</v>
+        <v>2179.223705655808</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>948.6086924299383</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>774.1556631488113</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>625.22125348756</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>465.9837984821046</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>319.4492405089895</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>183.0861403416076</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>92.58424597947513</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>73.5769543810131</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>167.2542238716304</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>405.5184228519776</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>772.216583164643</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1219.492908386959</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1693.015951941413</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2103.977231359468</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2414.476822835571</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2572.118380482171</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2571.974027074686</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2442.536140568166</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2249.893140246022</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2021.825293380437</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1786.673185148695</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1532.435828420493</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1324.58432821496</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1116.824029450006</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>617.1173509610744</v>
+        <v>581.0670061200601</v>
       </c>
       <c r="C40" t="n">
-        <v>448.1811680331675</v>
+        <v>486.0753249450927</v>
       </c>
       <c r="D40" t="n">
-        <v>392.9637945169783</v>
+        <v>409.9031872856966</v>
       </c>
       <c r="E40" t="n">
-        <v>339.9499668307319</v>
+        <v>335.9345954562431</v>
       </c>
       <c r="F40" t="n">
-        <v>193.0600193328215</v>
+        <v>262.9891497112723</v>
       </c>
       <c r="G40" t="n">
-        <v>120.2564486036871</v>
+        <v>169.2308148389308</v>
       </c>
       <c r="H40" t="n">
-        <v>68.93852771769147</v>
+        <v>96.95812980972816</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>73.5769543810131</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>118.6995868279487</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>322.686769776825</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>639.2465682253212</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>983.4036138248703</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1324.811990530735</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>1624.141589451148</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>1856.749089884808</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1934.359386037323</v>
       </c>
       <c r="R40" t="n">
-        <v>1924.809375176833</v>
+        <v>1918.47343054779</v>
       </c>
       <c r="S40" t="n">
-        <v>1828.022756899806</v>
+        <v>1800.732048127556</v>
       </c>
       <c r="T40" t="n">
-        <v>1701.155407365479</v>
+        <v>1652.909934450022</v>
       </c>
       <c r="U40" t="n">
-        <v>1412.052540491122</v>
+        <v>1437.751569328605</v>
       </c>
       <c r="V40" t="n">
-        <v>1252.267318181382</v>
+        <v>1205.13676401705</v>
       </c>
       <c r="W40" t="n">
-        <v>1057.749414040568</v>
+        <v>989.6640957330286</v>
       </c>
       <c r="X40" t="n">
-        <v>924.6591290386976</v>
+        <v>835.6190465879508</v>
       </c>
       <c r="Y40" t="n">
-        <v>703.8665498951675</v>
+        <v>688.7709691973603</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2018.472742224994</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.959858232656</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D41" t="n">
         <v>1386.143792573978</v>
@@ -7411,52 +7411,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3309.942028077285</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3309.942028077285</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U41" t="n">
-        <v>3309.942028077285</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V41" t="n">
-        <v>3026.328773681787</v>
+        <v>2677.383608767879</v>
       </c>
       <c r="W41" t="n">
-        <v>3026.328773681787</v>
+        <v>2372.064586445838</v>
       </c>
       <c r="X41" t="n">
-        <v>2700.312648368781</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y41" t="n">
-        <v>2357.622949341042</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="42">
@@ -7569,49 +7569,49 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328075</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337103</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M43" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
         <v>893.6650816874605</v>
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1358.621238582484</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C44" t="n">
-        <v>1358.621238582484</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D44" t="n">
-        <v>1047.805172923807</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E44" t="n">
         <v>1047.805172923807</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2898.155827638545</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2614.542573243048</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2309.223550921007</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X44" t="n">
-        <v>2040.461144726271</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y44" t="n">
-        <v>1697.771445698533</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F46" t="n">
         <v>335.4089181770414</v>
@@ -7821,7 +7821,7 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P46" t="n">
         <v>2175.221948702825</v>
@@ -7851,7 +7851,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
   </sheetData>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>218.2111409464629</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>233.4357089658653</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>227.7528737187178</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>226.7777408199137</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>227.6097508526263</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>229.1091522321465</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>136.8385818314783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>140.1317786452013</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>129.2864630672354</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>140.7160931202018</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>132.4654202195568</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,16 +8379,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>133.8997196622861</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>137.8872852940284</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6717389884799</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>137.5201250048898</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>132.849622231929</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>147.8561174824629</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L8" t="n">
-        <v>146.1540811420379</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M8" t="n">
-        <v>130.6352453954719</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N8" t="n">
-        <v>128.0886477370433</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O8" t="n">
-        <v>134.4204387476764</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P8" t="n">
-        <v>149.5742303615057</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q8" t="n">
-        <v>160.9833578264609</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>98.13225110949729</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>88.77938002220701</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>72.58438688457353</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M9" t="n">
-        <v>65.15016381674576</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N9" t="n">
-        <v>52.32030800902902</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>70.30709780084533</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P9" t="n">
-        <v>75.95599410909642</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>101.1980012706528</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>99.4192181661623</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>97.01449394700373</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M10" t="n">
-        <v>98.99698646752641</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N10" t="n">
-        <v>88.70616454398026</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O10" t="n">
-        <v>102.4527720991047</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P10" t="n">
-        <v>106.9205620915436</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>137.3588068074214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>114.86076242227</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>233.4533865158186</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>193.2056768295738</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665426</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>306.6874953089246</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>21.74982042514725</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544129</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.40458911672741</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10603,10 +10603,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>27.87508929584439</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>114.8607624222711</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707175</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.73487899239089</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>139.5455787045685</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>38.27967649622099</v>
       </c>
     </row>
     <row r="12">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>181.5244209129031</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>14.27455636516598</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>76.78585061059809</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.724779460851273</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>41.46740866780834</v>
       </c>
       <c r="T20" t="n">
-        <v>6.724779460851096</v>
+        <v>35.3184419427896</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>52.28225787287724</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>52.28225787287687</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.70546957301535</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>21.71588520908392</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>5.981554650710279</v>
       </c>
       <c r="X44" t="n">
-        <v>56.68118192708846</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>725599.2331485455</v>
+        <v>726320.4572074345</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>694762.6272270017</v>
+        <v>721708.3920321848</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602880.5800698376</v>
+        <v>602880.5800698377</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602880.5800698377</v>
+        <v>602880.5800698376</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>602880.5800698376</v>
+        <v>653768.964494181</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>602880.5800698376</v>
+        <v>653768.964494181</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671181.1359045717</v>
+        <v>661156.2920727478</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643451.1265618514</v>
+        <v>658505.8836183487</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>643451.1265618514</v>
+        <v>658505.8836183487</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491118</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="C2" t="n">
-        <v>798795.5764943353</v>
+        <v>798794.430249112</v>
       </c>
       <c r="D2" t="n">
-        <v>798838.5017490629</v>
+        <v>798801.6104245108</v>
       </c>
       <c r="E2" t="n">
+        <v>745417.7346425964</v>
+      </c>
+      <c r="F2" t="n">
+        <v>745417.7346425963</v>
+      </c>
+      <c r="G2" t="n">
+        <v>794556.3757517879</v>
+      </c>
+      <c r="H2" t="n">
+        <v>794556.3757517877</v>
+      </c>
+      <c r="I2" t="n">
+        <v>800515.7256176769</v>
+      </c>
+      <c r="J2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="K2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="L2" t="n">
+        <v>800515.7256176759</v>
+      </c>
+      <c r="M2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="N2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="O2" t="n">
         <v>745417.7346425961</v>
       </c>
-      <c r="F2" t="n">
-        <v>745417.7346425967</v>
-      </c>
-      <c r="G2" t="n">
-        <v>745417.7346425963</v>
-      </c>
-      <c r="H2" t="n">
-        <v>745417.7346425966</v>
-      </c>
-      <c r="I2" t="n">
-        <v>800515.7256176762</v>
-      </c>
-      <c r="J2" t="n">
-        <v>800515.7256176765</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.725617676</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176765</v>
-      </c>
-      <c r="M2" t="n">
-        <v>796458.0995841625</v>
-      </c>
-      <c r="N2" t="n">
-        <v>796458.0995841626</v>
-      </c>
-      <c r="O2" t="n">
-        <v>745417.7346425966</v>
-      </c>
       <c r="P2" t="n">
-        <v>745417.7346425964</v>
+        <v>745417.7346425962</v>
       </c>
     </row>
     <row r="3">
@@ -26368,37 +26368,37 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3345.426898312242</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117826.2471223796</v>
+        <v>19708.98312032399</v>
       </c>
       <c r="E3" t="n">
-        <v>1047863.627496616</v>
+        <v>1142859.142942023</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>40800.74956648219</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902292</v>
+        <v>5261.536327618246</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487405</v>
+        <v>40564.9657701871</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>16596.17320141999</v>
       </c>
       <c r="M3" t="n">
-        <v>199180.5423999885</v>
+        <v>204591.6926510704</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>436273.8797192482</v>
       </c>
       <c r="C4" t="n">
-        <v>435241.0409526688</v>
+        <v>436273.8797192482</v>
       </c>
       <c r="D4" t="n">
-        <v>397875.557382715</v>
+        <v>429836.4204240781</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359857</v>
+        <v>58215.55741359852</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359855</v>
+        <v>58215.55741359852</v>
       </c>
       <c r="G4" t="n">
-        <v>58215.55741359855</v>
+        <v>83177.52332994386</v>
       </c>
       <c r="H4" t="n">
-        <v>58215.55741359854</v>
+        <v>83177.52332994387</v>
       </c>
       <c r="I4" t="n">
-        <v>82806.76150409842</v>
+        <v>85837.28616712318</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409841</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="K4" t="n">
         <v>82806.76150409839</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409837</v>
       </c>
       <c r="M4" t="n">
-        <v>87978.72410530056</v>
+        <v>86654.67862842791</v>
       </c>
       <c r="N4" t="n">
-        <v>87978.72410530056</v>
+        <v>86654.67862842794</v>
       </c>
       <c r="O4" t="n">
+        <v>58215.55741359856</v>
+      </c>
+      <c r="P4" t="n">
         <v>58215.55741359854</v>
-      </c>
-      <c r="P4" t="n">
-        <v>58215.55741359856</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33707.69021107268</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36706.9548042109</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>85368.79976898001</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>85368.79976898001</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480613</v>
+        <v>86571.79392408318</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26499,13 +26499,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
-        <v>82204.64608217022</v>
+        <v>85829.89331719305</v>
       </c>
       <c r="N5" t="n">
-        <v>82204.64608217022</v>
+        <v>85829.89331719305</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178176</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>328892.9505298637</v>
+        <v>328848.814751183</v>
       </c>
       <c r="C6" t="n">
-        <v>326501.4184322815</v>
+        <v>328848.8147511827</v>
       </c>
       <c r="D6" t="n">
-        <v>246429.7424397574</v>
+        <v>315082.9634659171</v>
       </c>
       <c r="E6" t="n">
-        <v>-438916.9435894</v>
+        <v>-535325.2280341678</v>
       </c>
       <c r="F6" t="n">
-        <v>608946.6839072166</v>
+        <v>607533.9149078551</v>
       </c>
       <c r="G6" t="n">
-        <v>608946.6839072158</v>
+        <v>585056.4992436668</v>
       </c>
       <c r="H6" t="n">
-        <v>608946.6839072163</v>
+        <v>625857.2488101487</v>
       </c>
       <c r="I6" t="n">
-        <v>579684.7627597486</v>
+        <v>622845.1091988522</v>
       </c>
       <c r="J6" t="n">
-        <v>590750.9131438979</v>
+        <v>587766.0566685847</v>
       </c>
       <c r="K6" t="n">
         <v>628331.0224387716</v>
       </c>
       <c r="L6" t="n">
-        <v>628331.022438772</v>
+        <v>611734.8492373514</v>
       </c>
       <c r="M6" t="n">
-        <v>427094.1869967032</v>
+        <v>423439.4610209845</v>
       </c>
       <c r="N6" t="n">
-        <v>626274.7293966919</v>
+        <v>628031.1536720552</v>
       </c>
       <c r="O6" t="n">
-        <v>608946.6839072163</v>
+        <v>607533.9149078549</v>
       </c>
       <c r="P6" t="n">
-        <v>608946.6839072162</v>
+        <v>607533.914907855</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>67.72035312036749</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67.72035312036749</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67.72035312036749</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859258</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
       <c r="M2" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="N2" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>141.2548075326102</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26767,7 +26767,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>919.7119297626634</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>919.7119297626634</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>939.4980178400182</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26819,13 +26819,13 @@
         <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>919.7119297626637</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>919.7119297626637</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.74521650177496</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>26.2299201168176</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.74521650177499</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>26.2299201168176</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.5809446393679</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>948.5218930606881</v>
+        <v>1066.763317906509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>88.31047436037079</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063219</v>
+        <v>19.78608807735473</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>74.83844336859636</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>736.7769239563421</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.74521650177496</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>26.2299201168176</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>88.31047436037079</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27870,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>333.6592210197135</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>188.5835238723116</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>114.1983750118217</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
-        <v>196.0799934992127</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>220.6100488808188</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.300224226017</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0396860677631</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3010754988851</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>78.93578153885856</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.29365438442019</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>166.0396417651529</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>198.9400761653644</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9213931931164</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.7362575743836</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>159.9624642817528</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>147.7902961843423</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>75.35034998255622</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.83256731427025</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
-        <v>165.8401737041156</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>219.5774920363163</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>226.8572327145056</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3051354409959</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859301</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859237</v>
+        <v>37.13823810903091</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859257</v>
+        <v>37.13823810903091</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859188</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859219</v>
+        <v>37.13823810903079</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859257</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859257</v>
+        <v>67.72035312036749</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="C35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="D35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="E35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="F35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="G35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="H35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="T35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="U35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="V35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="W35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="X35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.95027323718514</v>
+        <v>21.84898606538832</v>
       </c>
       <c r="C37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="D37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="E37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="F37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="G37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="I37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.47183148750447</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="V37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="W37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="X37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="C38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="D38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="E38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="F38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="G38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="H38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="T38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="U38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="V38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="W38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="X38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="D40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="E40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="G40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="H40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="I40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>86.47183148750425</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="S40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="T40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="V40" t="n">
-        <v>93.95027323718514</v>
+        <v>21.84898606538849</v>
       </c>
       <c r="W40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="X40" t="n">
-        <v>93.95027323718514</v>
+        <v>73.20505673541018</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>73.20505673541018</v>
       </c>
     </row>
     <row r="41">
@@ -30644,7 +30644,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859142</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
         <v>46.97513661859258</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678707</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945164</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296705</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522113</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553525</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612933</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5678585227441613</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H8" t="n">
-        <v>5.815581096053643</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I8" t="n">
-        <v>21.8923656980943</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>48.1962822947573</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K8" t="n">
-        <v>72.23373356251766</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L8" t="n">
-        <v>89.6123338279493</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M8" t="n">
-        <v>99.71098783180078</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N8" t="n">
-        <v>101.3244158595476</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O8" t="n">
-        <v>95.67777267401037</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P8" t="n">
-        <v>81.65876539376387</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.32233204798858</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.67074292932795</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S8" t="n">
-        <v>12.94007608703259</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T8" t="n">
-        <v>2.485800683312567</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04542868181953289</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3038310954475013</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H9" t="n">
-        <v>2.934368737611394</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I9" t="n">
-        <v>10.46085131255651</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>28.70537555716941</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K9" t="n">
-        <v>49.06205895215199</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L9" t="n">
-        <v>65.96999289530065</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M9" t="n">
-        <v>76.98387010527256</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>79.02140407430429</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O9" t="n">
-        <v>72.28914664359911</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>58.01841330523381</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.78377281536876</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R9" t="n">
-        <v>18.86417976822293</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>5.643529338684942</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T9" t="n">
-        <v>1.224652529457252</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01998888785838825</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2547217840751987</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H10" t="n">
-        <v>2.264708225686769</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I10" t="n">
-        <v>7.660178742915979</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J10" t="n">
-        <v>18.00883013411655</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>29.59404000437308</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L10" t="n">
-        <v>37.87018233423455</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M10" t="n">
-        <v>39.92879748007864</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>38.97937992125294</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O10" t="n">
-        <v>36.0037663527381</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P10" t="n">
-        <v>30.80744195760402</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.32947593742414</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R10" t="n">
-        <v>11.45321767305393</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>4.439106000655961</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>1.088356713775849</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01389391549501085</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32332,10 +32332,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887899</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
         <v>394.6085160120764</v>
@@ -35822,7 +35822,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637034</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>328.1458077761339</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35892,7 +35892,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35904,7 +35904,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35980,10 +35980,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.5535532316586</v>
+        <v>82.71665472209713</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36141,10 +36141,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>365.6550672259895</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.5535532316588</v>
+        <v>82.71665472209713</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120757</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>570.6446730712192</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>443.9999816332933</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165844</v>
+        <v>82.71665472209702</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412324</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564863</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>614.4119707098149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>827.137011779454</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36615,10 +36615,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36834,10 +36834,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>643.8787818643251</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,13 +36846,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>272.5441252288667</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37001,7 +37001,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737849</v>
       </c>
       <c r="Q32" t="n">
-        <v>329.1988939204469</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629111</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37323,10 +37323,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>278.6693940995639</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37560,13 +37560,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>513.6227486416429</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.022796162911</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
